--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\2021-06-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C12C1C-AB43-45FC-8231-DE6D46A04EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE27F2FE-3322-4A80-B43A-D1FCC9CCBC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="15" windowWidth="14955" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,6 @@
     <t>借貸別</t>
   </si>
   <si>
-    <t>D:借;C:貸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -338,11 +334,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1: IFRS4
-2: IFRS17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>IfrsType</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -426,6 +417,16 @@
   </si>
   <si>
     <t>DECIMALD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:借
+C:貸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:IFRS4
+2:IFRS17</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1174,37 +1175,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="7"/>
+    <col min="7" max="7" width="70.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="8" t="s">
@@ -1217,20 +1218,20 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>11</v>
       </c>
@@ -1241,7 +1242,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
@@ -1252,7 +1253,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
@@ -1263,7 +1264,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1275,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>1</v>
       </c>
@@ -1305,41 +1306,41 @@
         <v>32</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="E9" s="25">
         <v>3</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>2</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="25">
         <v>12</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -1347,20 +1348,20 @@
         <v>24</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="25">
         <v>5</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>4</v>
       </c>
@@ -1368,10 +1369,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" s="25">
         <v>8</v>
@@ -1379,18 +1380,18 @@
       <c r="F12" s="20"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>5</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>98</v>
       </c>
       <c r="E13" s="45">
         <v>2</v>
@@ -1398,28 +1399,28 @@
       <c r="F13" s="20"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" s="21" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="21" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A14" s="42">
         <v>6</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E14" s="45">
         <v>3</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>7</v>
       </c>
@@ -1427,10 +1428,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="25">
         <v>11</v>
@@ -1438,7 +1439,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>8</v>
       </c>
@@ -1446,10 +1447,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="25">
         <v>5</v>
@@ -1457,18 +1458,18 @@
       <c r="F16" s="20"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="25">
         <v>6</v>
@@ -1476,7 +1477,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="26" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="42">
         <v>10</v>
       </c>
@@ -1494,42 +1495,42 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" s="25">
         <v>14</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="37"/>
     </row>
-    <row r="20" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42">
         <v>12</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="25">
         <v>80</v>
@@ -1537,18 +1538,18 @@
       <c r="F20" s="20"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42">
         <v>13</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="25">
         <v>15</v>
@@ -1556,18 +1557,18 @@
       <c r="F21" s="20"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42">
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="25">
         <v>2</v>
@@ -1575,18 +1576,18 @@
       <c r="F22" s="20"/>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42">
         <v>15</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="22">
         <v>10</v>
@@ -1594,18 +1595,18 @@
       <c r="F23" s="20"/>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42">
         <v>16</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="35">
         <v>12</v>
@@ -1613,18 +1614,18 @@
       <c r="F24" s="36"/>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42">
         <v>17</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="25">
         <v>2</v>
@@ -1632,7 +1633,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42">
         <v>18</v>
       </c>
@@ -1640,94 +1641,94 @@
         <v>22</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="25">
         <v>3</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="33" customFormat="1" ht="148.5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="33" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A27" s="42">
         <v>19</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="25">
         <v>3</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="33" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="33" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A28" s="42">
         <v>20</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="25">
         <v>6</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42">
         <v>21</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="25">
         <v>2</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="26" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="26" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A30" s="42">
         <v>22</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="25">
         <v>1</v>
@@ -1736,21 +1737,21 @@
         <v>21</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42">
         <v>23</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="25">
         <v>10</v>
@@ -1759,21 +1760,21 @@
         <v>21</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42">
         <v>24</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E32" s="25">
         <v>3</v>
@@ -1782,31 +1783,31 @@
         <v>21</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42">
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E33" s="25">
         <v>9</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="42">
         <v>26</v>
       </c>
@@ -1821,7 +1822,7 @@
       </c>
       <c r="E34" s="25"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="42">
         <v>27</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="42">
         <v>28</v>
       </c>
@@ -1853,7 +1854,7 @@
       </c>
       <c r="E36" s="25"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="42">
         <v>29</v>
       </c>
@@ -1895,15 +1896,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="90.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="90.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1914,37 +1915,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE27F2FE-3322-4A80-B43A-D1FCC9CCBC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CCD4B-B355-44AF-8669-B0EFB260707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -428,6 +428,10 @@
     <t>1:IFRS4
 2:IFRS17</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate ASC,BatchNo ASC,MediaSeq ASC,MediaSlipNo ASC,AcBookCode ASC,Seq ASC,AcSubBookCode ASC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1175,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1891,16 +1895,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="90.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1923,7 +1927,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CCD4B-B355-44AF-8669-B0EFB260707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB72F3D7-BFDE-4546-A6EF-290D7D16F224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5352" yWindow="36" windowWidth="17244" windowHeight="12012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>BatchNo</t>
-  </si>
-  <si>
     <t>傳票批號</t>
   </si>
   <si>
@@ -432,6 +429,10 @@
   <si>
     <t>AcDate ASC,BatchNo ASC,MediaSeq ASC,MediaSlipNo ASC,AcBookCode ASC,Seq ASC,AcSubBookCode ASC</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchNo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1179,15 +1180,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="18" customWidth="1"/>
     <col min="4" max="4" width="22.77734375" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.88671875" style="16" bestFit="1" customWidth="1"/>
@@ -1341,7 +1342,7 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1355,7 +1356,7 @@
         <v>56</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="25">
         <v>5</v>
@@ -1376,7 +1377,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="25">
         <v>8</v>
@@ -1389,13 +1390,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="D13" s="44" t="s">
         <v>95</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>96</v>
       </c>
       <c r="E13" s="45">
         <v>2</v>
@@ -1408,20 +1409,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>99</v>
-      </c>
       <c r="D14" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="45">
         <v>3</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1499,7 +1500,7 @@
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1513,7 +1514,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="25">
         <v>14</v>
@@ -1585,7 +1586,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>65</v>
@@ -1741,7 +1742,7 @@
         <v>21</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1895,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -1927,7 +1928,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
